--- a/Sources/registro_courier_oltp.xlsx
+++ b/Sources/registro_courier_oltp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upcedupe-my.sharepoint.com/personal/u201710328_upc_edu_pe/Documents/Fundamentos en Inteligencia de Negocios/TF/OLTP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\ETL\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="8_{85F6D0B4-BA9B-486B-8D16-4660C8167D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D85CD4-3FDA-4805-9348-92A7E5117AFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2041E8A6-49C9-4224-9F83-9A69E2D9F4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15285" xr2:uid="{0723C4F4-A8E3-40A1-8C97-C064009C5DBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0723C4F4-A8E3-40A1-8C97-C064009C5DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="165" formatCode="yyyymmdd;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,13 +598,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4697E90B-C9E3-424A-8D87-278FDE55CDE1}">
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128:K128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -940,7 +942,7 @@
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1009,16 +1011,16 @@
       <c r="F2">
         <v>19</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>44721</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.43888888888888888</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>44725</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>0.67638888888888893</v>
       </c>
       <c r="K2">
@@ -1028,21 +1030,21 @@
         <f>IF(N2=1,"PM01",IF(N2=2,"PM02",IF(N2=3,"PM03","PM04")))</f>
         <v>PM04</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>16.71</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>9.66</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>3.9554999999999998</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <f>M2+N2-O2</f>
         <v>22.4145</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1061,16 +1063,16 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>44649</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.56111111111111112</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>44650</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>0.3756944444444445</v>
       </c>
       <c r="K3">
@@ -1080,21 +1082,21 @@
         <f>IF(N3=1,"PM01",IF(N3=2,"PM02",IF(N3=3,"PM03","PM04")))</f>
         <v>PM04</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>23.86</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>8.65</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>1.9505999999999999</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f t="shared" ref="P3:P66" si="0">M3+N3-O3</f>
         <v>30.559399999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1113,16 +1115,16 @@
       <c r="F4">
         <v>21</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>44703</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.73888888888888893</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>44704</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.75347222222222221</v>
       </c>
       <c r="K4">
@@ -1132,21 +1134,21 @@
         <f t="shared" ref="L4:L67" si="1">IF(N4=1,"PM01",IF(N4=2,"PM02",IF(N4=3,"PM03","PM04")))</f>
         <v>PM04</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>12.54</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>8.39</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>1.4651000000000001</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f>M4+N4-O4</f>
         <v>19.4649</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1165,16 +1167,16 @@
       <c r="F5">
         <v>22</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>44593</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.71527777777777779</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>44595</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.46875</v>
       </c>
       <c r="K5">
@@ -1184,21 +1186,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>17.489999999999998</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>5.63</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>1.8495999999999999</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <f t="shared" si="0"/>
         <v>21.270399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1217,16 +1219,16 @@
       <c r="F6">
         <v>23</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>44723</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.74652777777777779</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>44724</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.5083333333333333</v>
       </c>
       <c r="K6">
@@ -1236,21 +1238,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>23.29</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>6.55</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>2.6856</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <f t="shared" si="0"/>
         <v>27.154399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1269,16 +1271,16 @@
       <c r="F7">
         <v>24</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>44663</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.57430555555555551</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>44668</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.76874999999999993</v>
       </c>
       <c r="K7">
@@ -1288,21 +1290,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>16.27</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>5.46</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>1.3038000000000001</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <f t="shared" si="0"/>
         <v>20.426200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1321,16 +1323,16 @@
       <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>44571</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.58958333333333335</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>44575</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.82013888888888886</v>
       </c>
       <c r="K8">
@@ -1340,21 +1342,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>23.29</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>5.08</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>3.6880999999999999</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f t="shared" si="0"/>
         <v>24.681899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1373,16 +1375,16 @@
       <c r="F9">
         <v>26</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>44693</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.79375000000000007</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>44697</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>0.64374999999999993</v>
       </c>
       <c r="K9">
@@ -1392,21 +1394,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>26.3</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>5.23</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>3.7835999999999999</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <f t="shared" si="0"/>
         <v>27.746400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1425,16 +1427,16 @@
       <c r="F10">
         <v>27</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>44575</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.4055555555555555</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>44579</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>0.42152777777777778</v>
       </c>
       <c r="K10">
@@ -1444,21 +1446,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>25.53</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>4.5824999999999996</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <f t="shared" si="0"/>
         <v>25.967500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1477,16 +1479,16 @@
       <c r="F11">
         <v>28</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>44625</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.47291666666666665</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>44627</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.56736111111111109</v>
       </c>
       <c r="K11">
@@ -1496,21 +1498,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>28.25</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>9.2200000000000006</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>2.2481999999999998</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <f t="shared" si="0"/>
         <v>35.221800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1529,16 +1531,16 @@
       <c r="F12">
         <v>29</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>44578</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.59236111111111112</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>44582</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>0.62708333333333333</v>
       </c>
       <c r="K12">
@@ -1548,21 +1550,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>13.02</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>8.5500000000000007</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>1.0785</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <f t="shared" si="0"/>
         <v>20.491500000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1581,16 +1583,16 @@
       <c r="F13">
         <v>30</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>44594</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.62986111111111109</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>44599</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.49513888888888885</v>
       </c>
       <c r="K13">
@@ -1600,21 +1602,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>23.29</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>7.61</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>2.1630000000000003</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <f t="shared" si="0"/>
         <v>28.736999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1633,16 +1635,16 @@
       <c r="F14">
         <v>31</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>44669</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.7909722222222223</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>44671</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>0.82291666666666663</v>
       </c>
       <c r="K14">
@@ -1652,21 +1654,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>24.53</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>9.32</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>4.7390000000000008</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <f t="shared" si="0"/>
         <v>29.111000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1685,16 +1687,16 @@
       <c r="F15">
         <v>32</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>44661</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.55763888888888891</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>44665</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>0.36527777777777781</v>
       </c>
       <c r="K15">
@@ -1704,21 +1706,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>15</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>7.73</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>2.2730000000000001</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <f t="shared" si="0"/>
         <v>20.457000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1737,16 +1739,16 @@
       <c r="F16">
         <v>33</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>44660</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>44661</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>0.37291666666666662</v>
       </c>
       <c r="K16">
@@ -1756,21 +1758,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>28.7</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>6.76</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>3.9006000000000003</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <f t="shared" si="0"/>
         <v>31.5594</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1789,16 +1791,16 @@
       <c r="F17">
         <v>34</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>44646</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.72569444444444453</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>44647</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>0.78888888888888886</v>
       </c>
       <c r="K17">
@@ -1808,21 +1810,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>27.89</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>5.81</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>1.6850000000000003</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <f t="shared" si="0"/>
         <v>32.015000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1841,16 +1843,16 @@
       <c r="F18">
         <v>35</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>44680</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.76666666666666661</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>44683</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>0.42777777777777781</v>
       </c>
       <c r="K18">
@@ -1860,21 +1862,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>19.18</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>7.06</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>2.6240000000000001</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <f t="shared" si="0"/>
         <v>23.616</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1893,16 +1895,16 @@
       <c r="F19">
         <v>36</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>44620</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.7993055555555556</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>44623</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0.34791666666666665</v>
       </c>
       <c r="K19">
@@ -1912,21 +1914,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>21.17</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>5.34</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>3.1812</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <f t="shared" si="0"/>
         <v>23.328800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1945,16 +1947,16 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>44690</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>44694</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>0.57916666666666672</v>
       </c>
       <c r="K20">
@@ -1964,21 +1966,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>21.3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>1.8424000000000003</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <f t="shared" si="0"/>
         <v>24.477599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1997,16 +1999,16 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>44729</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.70486111111111116</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>44732</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>0.50138888888888888</v>
       </c>
       <c r="K21">
@@ -2016,21 +2018,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>26.15</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>6.34</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>1.9493999999999996</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <f t="shared" si="0"/>
         <v>30.540599999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2049,16 +2051,16 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>44562</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.8125</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>44563</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>0.66041666666666665</v>
       </c>
       <c r="K22">
@@ -2068,21 +2070,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>16.62</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>7.55</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>1.9336000000000002</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <f t="shared" si="0"/>
         <v>22.236400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2101,16 +2103,16 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>44649</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.46597222222222223</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>44651</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>0.73125000000000007</v>
       </c>
       <c r="K23">
@@ -2120,21 +2122,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>10.83</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>5.34</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>1.1319000000000001</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <f t="shared" si="0"/>
         <v>15.038100000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2153,16 +2155,16 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>44576</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.61388888888888882</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>44577</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>0.5083333333333333</v>
       </c>
       <c r="K24">
@@ -2172,21 +2174,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>26.21</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>8.66</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>3.4870000000000005</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <f t="shared" si="0"/>
         <v>31.383000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2205,16 +2207,16 @@
       <c r="F25">
         <v>6</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>44577</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.65902777777777777</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>44579</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>0.67291666666666661</v>
       </c>
       <c r="K25">
@@ -2224,21 +2226,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>23.79</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="2">
         <v>9.91</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <v>4.7180000000000009</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="2">
         <f t="shared" si="0"/>
         <v>28.982000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2257,16 +2259,16 @@
       <c r="F26">
         <v>7</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>44602</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.75277777777777777</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>44603</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>0.69791666666666663</v>
       </c>
       <c r="K26">
@@ -2276,21 +2278,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>29.24</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="2">
         <v>5.23</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <v>4.8258000000000001</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <f t="shared" si="0"/>
         <v>29.644199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2309,16 +2311,16 @@
       <c r="F27">
         <v>8</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>44690</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.80069444444444438</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>44692</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>0.74375000000000002</v>
       </c>
       <c r="K27">
@@ -2328,21 +2330,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>14.79</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>6.96</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>3.0450000000000004</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <f t="shared" si="0"/>
         <v>18.704999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2361,16 +2363,16 @@
       <c r="F28">
         <v>9</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>44716</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.63958333333333328</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>44720</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>0.80763888888888891</v>
       </c>
       <c r="K28">
@@ -2380,21 +2382,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <v>29.06</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="2">
         <v>5.44</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <v>2.7600000000000002</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <f t="shared" si="0"/>
         <v>31.74</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2413,16 +2415,16 @@
       <c r="F29">
         <v>10</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>44705</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>0.72013888888888899</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>44707</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>0.71319444444444446</v>
       </c>
       <c r="K29">
@@ -2432,21 +2434,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>15.79</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <v>6.15</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="2">
         <v>1.3163999999999998</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="2">
         <f t="shared" si="0"/>
         <v>20.623599999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2465,16 +2467,16 @@
       <c r="F30">
         <v>11</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>44630</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.78402777777777777</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>44631</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>0.69097222222222221</v>
       </c>
       <c r="K30">
@@ -2484,21 +2486,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <v>18.89</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="2">
         <v>8.39</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <v>1.9096000000000002</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <f t="shared" si="0"/>
         <v>25.3704</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2517,16 +2519,16 @@
       <c r="F31">
         <v>12</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>44626</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.52013888888888882</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>44630</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>0.62777777777777777</v>
       </c>
       <c r="K31">
@@ -2536,21 +2538,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <v>10.29</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="2">
         <v>7.9</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="2">
         <v>1.0913999999999999</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="2">
         <f t="shared" si="0"/>
         <v>17.098599999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2569,16 +2571,16 @@
       <c r="F32">
         <v>13</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>44737</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.82986111111111116</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>44739</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>0.54583333333333328</v>
       </c>
       <c r="K32">
@@ -2588,21 +2590,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <v>11.06</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="2">
         <v>1.5488</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <f t="shared" si="0"/>
         <v>17.811199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2621,16 +2623,16 @@
       <c r="F33">
         <v>14</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>44575</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.3923611111111111</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="4">
         <v>44579</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>0.52013888888888882</v>
       </c>
       <c r="K33">
@@ -2640,21 +2642,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>19.260000000000002</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <v>6.76</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <v>3.1224000000000003</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <f t="shared" si="0"/>
         <v>22.897600000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2673,16 +2675,16 @@
       <c r="F34">
         <v>15</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>44639</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="4">
         <v>44641</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>0.50138888888888888</v>
       </c>
       <c r="K34">
@@ -2692,21 +2694,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>12.12</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <v>7.14</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="2">
         <v>2.6964000000000001</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="2">
         <f t="shared" si="0"/>
         <v>16.563599999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2725,16 +2727,16 @@
       <c r="F35">
         <v>16</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>44610</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>0.72222222222222221</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="4">
         <v>44613</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>0.41041666666666665</v>
       </c>
       <c r="K35">
@@ -2744,21 +2746,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <v>9.7200000000000006</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <v>4.1874000000000011</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="2">
         <f t="shared" si="0"/>
         <v>25.722600000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2777,16 +2779,16 @@
       <c r="F36">
         <v>17</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>44652</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>0.35138888888888892</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="4">
         <v>44654</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>0.53194444444444444</v>
       </c>
       <c r="K36">
@@ -2796,21 +2798,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>16.34</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="2">
         <v>5.93</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="2">
         <v>1.7816000000000001</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="2">
         <f t="shared" si="0"/>
         <v>20.488399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2829,16 +2831,16 @@
       <c r="F37">
         <v>18</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>44731</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>0.7895833333333333</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="4">
         <v>44734</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>0.58958333333333335</v>
       </c>
       <c r="K37">
@@ -2848,21 +2850,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>13.24</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <v>6.28</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <v>1.7567999999999999</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="2">
         <f t="shared" si="0"/>
         <v>17.763200000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2881,16 +2883,16 @@
       <c r="F38">
         <v>19</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>44694</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>0.62291666666666667</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="4">
         <v>44699</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>0.78125</v>
       </c>
       <c r="K38">
@@ -2900,21 +2902,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>23.84</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>6.55</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>4.5584999999999996</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <f t="shared" si="0"/>
         <v>25.831500000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2933,16 +2935,16 @@
       <c r="F39">
         <v>20</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <v>44736</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>0.54861111111111105</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="4">
         <v>44739</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>0.56666666666666665</v>
       </c>
       <c r="K39">
@@ -2952,21 +2954,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>11.65</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="2">
         <v>8.3800000000000008</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="2">
         <v>2.8042000000000002</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <f t="shared" si="0"/>
         <v>17.2258</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2985,16 +2987,16 @@
       <c r="F40">
         <v>21</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>44624</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>0.55763888888888891</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="4">
         <v>44626</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>0.5229166666666667</v>
       </c>
       <c r="K40">
@@ -3004,21 +3006,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>18.27</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="2">
         <v>7.85</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="2">
         <v>2.3507999999999996</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="2">
         <f t="shared" si="0"/>
         <v>23.769199999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3037,16 +3039,16 @@
       <c r="F41">
         <v>22</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>44621</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>0.79027777777777775</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="4">
         <v>44626</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>0.65486111111111112</v>
       </c>
       <c r="K41">
@@ -3056,21 +3058,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>10.53</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="2">
         <v>6.07</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <v>1.1620000000000001</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="2">
         <f t="shared" si="0"/>
         <v>15.438000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3089,16 +3091,16 @@
       <c r="F42">
         <v>23</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3">
         <v>44666</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>0.35486111111111113</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="4">
         <v>44671</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>0.76111111111111107</v>
       </c>
       <c r="K42">
@@ -3108,21 +3110,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>25.9</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="2">
         <v>8.01</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="2">
         <v>3.0518999999999994</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="2">
         <f t="shared" si="0"/>
         <v>30.858099999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3141,16 +3143,16 @@
       <c r="F43">
         <v>24</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="3">
         <v>44684</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>0.78402777777777777</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="4">
         <v>44686</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>0.57152777777777775</v>
       </c>
       <c r="K43">
@@ -3160,21 +3162,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <v>12.32</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="2">
         <v>5.67</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="2">
         <v>2.5186000000000006</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="2">
         <f t="shared" si="0"/>
         <v>15.471400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -3193,16 +3195,16 @@
       <c r="F44">
         <v>25</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <v>44729</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>0.83194444444444438</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="4">
         <v>44732</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>0.71944444444444444</v>
       </c>
       <c r="K44">
@@ -3212,21 +3214,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <v>13.02</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="2">
         <v>5.09</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="2">
         <v>1.2677</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <f t="shared" si="0"/>
         <v>16.842299999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3245,16 +3247,16 @@
       <c r="F45">
         <v>26</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <v>44584</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>0.79236111111111107</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="4">
         <v>44588</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>0.67569444444444438</v>
       </c>
       <c r="K45">
@@ -3264,21 +3266,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="2">
         <v>12.09</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="2">
         <v>5.93</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <v>1.9822</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="2">
         <f t="shared" si="0"/>
         <v>16.037800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -3297,16 +3299,16 @@
       <c r="F46">
         <v>27</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <v>44682</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>0.46388888888888885</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="4">
         <v>44685</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>0.4770833333333333</v>
       </c>
       <c r="K46">
@@ -3316,21 +3318,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <v>27.05</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="2">
         <v>6.88</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="2">
         <v>5.0895000000000001</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="2">
         <f t="shared" si="0"/>
         <v>28.840499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -3349,16 +3351,16 @@
       <c r="F47">
         <v>28</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3">
         <v>44679</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>0.61111111111111105</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="4">
         <v>44681</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>0.7583333333333333</v>
       </c>
       <c r="K47">
@@ -3368,21 +3370,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <v>28.21</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="2">
         <v>5.46</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="2">
         <v>4.3771000000000004</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="2">
         <f t="shared" si="0"/>
         <v>29.292900000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -3401,16 +3403,16 @@
       <c r="F48">
         <v>29</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3">
         <v>44652</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>0.82986111111111116</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="4">
         <v>44655</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>0.42291666666666666</v>
       </c>
       <c r="K48">
@@ -3420,21 +3422,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <v>14.37</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="2">
         <v>5.59</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="2">
         <v>2.3952</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="2">
         <f t="shared" si="0"/>
         <v>17.564800000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -3453,16 +3455,16 @@
       <c r="F49">
         <v>30</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3">
         <v>44620</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>0.41875000000000001</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="4">
         <v>44624</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>0.5493055555555556</v>
       </c>
       <c r="K49">
@@ -3472,21 +3474,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <v>19.77</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="2">
         <v>5.48</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="2">
         <v>3.2825000000000002</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="2">
         <f t="shared" si="0"/>
         <v>21.967500000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -3505,16 +3507,16 @@
       <c r="F50">
         <v>31</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="3">
         <v>44668</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>0.7402777777777777</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="4">
         <v>44672</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>0.62569444444444444</v>
       </c>
       <c r="K50">
@@ -3524,21 +3526,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>27.39</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="2">
         <v>8.8800000000000008</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="2">
         <v>3.6270000000000007</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
         <f t="shared" si="0"/>
         <v>32.643000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -3557,16 +3559,16 @@
       <c r="F51">
         <v>32</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3">
         <v>44607</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>0.3527777777777778</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="4">
         <v>44612</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>0.76736111111111116</v>
       </c>
       <c r="K51">
@@ -3576,21 +3578,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <v>10.49</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="2">
         <v>9.89</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="2">
         <v>2.2418000000000005</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="2">
         <f t="shared" si="0"/>
         <v>18.138200000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3609,16 +3611,16 @@
       <c r="F52">
         <v>33</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <v>44677</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>0.42638888888888887</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="4">
         <v>44679</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>0.6430555555555556</v>
       </c>
       <c r="K52">
@@ -3628,21 +3630,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <v>18.920000000000002</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <v>5.53</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="2">
         <v>1.7115000000000005</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="2">
         <f t="shared" si="0"/>
         <v>22.738500000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -3661,16 +3663,16 @@
       <c r="F53">
         <v>34</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="3">
         <v>44655</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>0.82708333333333339</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="4">
         <v>44660</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>0.58402777777777781</v>
       </c>
       <c r="K53">
@@ -3680,21 +3682,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <v>16.53</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="2">
         <v>5.24</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="2">
         <v>1.3062000000000002</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="2">
         <f t="shared" si="0"/>
         <v>20.463800000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -3713,16 +3715,16 @@
       <c r="F54">
         <v>35</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="3">
         <v>44666</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="4">
         <v>44669</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>0.61111111111111105</v>
       </c>
       <c r="K54">
@@ -3732,21 +3734,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <v>28.14</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="2">
         <v>5.01</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="2">
         <v>4.3094999999999999</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="2">
         <f t="shared" si="0"/>
         <v>28.840499999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -3765,16 +3767,16 @@
       <c r="F55">
         <v>36</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="3">
         <v>44595</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>0.34652777777777777</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="4">
         <v>44598</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>0.55138888888888882</v>
       </c>
       <c r="K55">
@@ -3784,21 +3786,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="2">
         <v>20.68</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="2">
         <v>9.6</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55" s="2">
         <v>1.8168</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="2">
         <f t="shared" si="0"/>
         <v>28.463200000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -3817,16 +3819,16 @@
       <c r="F56">
         <v>33</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="3">
         <v>44682</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>0.44027777777777777</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="4">
         <v>44685</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>0.78819444444444453</v>
       </c>
       <c r="K56">
@@ -3836,21 +3838,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="2">
         <v>25.99</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="2">
         <v>6.51</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="2">
         <v>4.5500000000000007</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="2">
         <f t="shared" si="0"/>
         <v>27.95</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -3869,16 +3871,16 @@
       <c r="F57">
         <v>34</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="3">
         <v>44651</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>0.54097222222222219</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="4">
         <v>44656</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>0.75069444444444444</v>
       </c>
       <c r="K57">
@@ -3888,21 +3890,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="2">
         <v>16.77</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="2">
         <v>5.39</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="2">
         <v>1.5512000000000001</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="2">
         <f t="shared" si="0"/>
         <v>20.608799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -3921,16 +3923,16 @@
       <c r="F58">
         <v>35</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="3">
         <v>44725</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="1">
         <v>0.6118055555555556</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="4">
         <v>44728</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>0.41111111111111115</v>
       </c>
       <c r="K58">
@@ -3940,21 +3942,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="2">
         <v>11.4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="2">
         <v>8.5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="2">
         <v>1.5919999999999999</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="2">
         <f t="shared" si="0"/>
         <v>18.308</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -3973,16 +3975,16 @@
       <c r="F59">
         <v>36</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3">
         <v>44701</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="1">
         <v>0.82708333333333339</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="4">
         <v>44704</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>0.82986111111111116</v>
       </c>
       <c r="K59">
@@ -3992,21 +3994,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="2">
         <v>19.63</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="2">
         <v>1.9719</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="2">
         <f t="shared" si="0"/>
         <v>26.198099999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -4025,16 +4027,16 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="3">
         <v>44587</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>0.60833333333333328</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="4">
         <v>44592</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>0.33402777777777781</v>
       </c>
       <c r="K60">
@@ -4044,21 +4046,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="2">
         <v>12.12</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="2">
         <v>6.61</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="2">
         <v>2.8094999999999999</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="2">
         <f t="shared" si="0"/>
         <v>15.920500000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -4077,16 +4079,16 @@
       <c r="F61">
         <v>12</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="3">
         <v>44652</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>0.33958333333333335</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="4">
         <v>44656</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>0.77638888888888891</v>
       </c>
       <c r="K61">
@@ -4096,21 +4098,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="2">
         <v>18.04</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N61" s="2">
         <v>8.48</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="2">
         <v>1.8564000000000001</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="2">
         <f t="shared" si="0"/>
         <v>24.663599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -4129,16 +4131,16 @@
       <c r="F62">
         <v>13</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="3">
         <v>44681</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>0.56111111111111112</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="4">
         <v>44683</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>0.82152777777777775</v>
       </c>
       <c r="K62">
@@ -4148,21 +4150,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="2">
         <v>20.72</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="2">
         <v>8.15</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="2">
         <v>3.4643999999999995</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="2">
         <f t="shared" si="0"/>
         <v>25.4056</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -4181,16 +4183,16 @@
       <c r="F63">
         <v>14</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="3">
         <v>44708</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="4">
         <v>44713</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>0.80555555555555547</v>
       </c>
       <c r="K63">
@@ -4200,21 +4202,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="2">
         <v>11.99</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63" s="2">
         <v>8.5500000000000007</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="2">
         <v>1.8485999999999998</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="2">
         <f t="shared" si="0"/>
         <v>18.691399999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -4233,16 +4235,16 @@
       <c r="F64">
         <v>15</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="3">
         <v>44652</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>0.51666666666666672</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="4">
         <v>44656</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>0.82430555555555562</v>
       </c>
       <c r="K64">
@@ -4252,21 +4254,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="2">
         <v>10.25</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="2">
         <v>8.5</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="2">
         <v>1.125</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="2">
         <f t="shared" si="0"/>
         <v>17.625</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -4285,16 +4287,16 @@
       <c r="F65">
         <v>16</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="3">
         <v>44721</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>0.51874999999999993</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="4">
         <v>44722</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>0.52152777777777781</v>
       </c>
       <c r="K65">
@@ -4304,21 +4306,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="2">
         <v>11.96</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="2">
         <v>9.5500000000000007</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65" s="2">
         <v>2.3661000000000003</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65" s="2">
         <f t="shared" si="0"/>
         <v>19.143900000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -4337,16 +4339,16 @@
       <c r="F66">
         <v>17</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="3">
         <v>44646</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="4">
         <v>44650</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>0.75486111111111109</v>
       </c>
       <c r="K66">
@@ -4356,21 +4358,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="2">
         <v>24.17</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="2">
         <v>9.64</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="2">
         <v>2.7048000000000001</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="2">
         <f t="shared" si="0"/>
         <v>31.105200000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -4389,16 +4391,16 @@
       <c r="F67">
         <v>18</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="3">
         <v>44641</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="4">
         <v>44646</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <v>0.37777777777777777</v>
       </c>
       <c r="K67">
@@ -4408,21 +4410,21 @@
         <f t="shared" si="1"/>
         <v>PM04</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="2">
         <v>22.52</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67" s="2">
         <v>8.31</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67" s="2">
         <v>4.0079000000000002</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P67" s="2">
         <f t="shared" ref="P67:P121" si="2">M67+N67-O67</f>
         <v>26.822099999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -4441,16 +4443,16 @@
       <c r="F68">
         <v>36</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="3">
         <v>44685</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="4">
         <v>44687</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <v>0.68055555555555547</v>
       </c>
       <c r="K68">
@@ -4460,21 +4462,21 @@
         <f t="shared" ref="L68:L121" si="3">IF(N68=1,"PM01",IF(N68=2,"PM02",IF(N68=3,"PM03","PM04")))</f>
         <v>PM04</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="2">
         <v>20.69</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="2">
         <v>7.49</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="2">
         <v>1.6907999999999999</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68" s="2">
         <f t="shared" si="2"/>
         <v>26.4892</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -4493,16 +4495,16 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="3">
         <v>44595</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>0.80902777777777779</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="4">
         <v>44600</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>0.78680555555555554</v>
       </c>
       <c r="K69">
@@ -4512,21 +4514,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="2">
         <v>17.02</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="2">
         <v>5.15</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69" s="2">
         <v>1.3302</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69" s="2">
         <f t="shared" si="2"/>
         <v>20.8398</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -4545,16 +4547,16 @@
       <c r="F70">
         <v>2</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="3">
         <v>44570</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>0.47013888888888888</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="4">
         <v>44575</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <v>0.79999999999999993</v>
       </c>
       <c r="K70">
@@ -4564,21 +4566,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="2">
         <v>24.29</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="2">
         <v>7.21</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="2">
         <v>4.41</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="2">
         <f t="shared" si="2"/>
         <v>27.09</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -4597,16 +4599,16 @@
       <c r="F71">
         <v>3</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="3">
         <v>44615</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>0.76874999999999993</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="4">
         <v>44616</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <v>0.53125</v>
       </c>
       <c r="K71">
@@ -4616,21 +4618,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="2">
         <v>10.14</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="2">
         <v>6.2</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71" s="2">
         <v>2.4510000000000001</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="2">
         <f t="shared" si="2"/>
         <v>13.888999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -4649,16 +4651,16 @@
       <c r="F72">
         <v>4</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="3">
         <v>44647</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>0.7909722222222223</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="4">
         <v>44652</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="1">
         <v>0.53888888888888886</v>
       </c>
       <c r="K72">
@@ -4668,21 +4670,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="2">
         <v>29.18</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="2">
         <v>8.35</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="2">
         <v>4.1283000000000003</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="2">
         <f t="shared" si="2"/>
         <v>33.401699999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -4701,16 +4703,16 @@
       <c r="F73">
         <v>5</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="3">
         <v>44715</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>0.64652777777777781</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="4">
         <v>44720</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="1">
         <v>0.47291666666666665</v>
       </c>
       <c r="K73">
@@ -4720,21 +4722,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="2">
         <v>22.24</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="2">
         <v>6.33</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="2">
         <v>1.7141999999999999</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="2">
         <f t="shared" si="2"/>
         <v>26.855800000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -4753,16 +4755,16 @@
       <c r="F74">
         <v>19</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="3">
         <v>44733</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="4">
         <v>44735</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="1">
         <v>0.42152777777777778</v>
       </c>
       <c r="K74">
@@ -4772,21 +4774,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="2">
         <v>26.47</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="2">
         <v>8.64</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="2">
         <v>3.8620999999999999</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74" s="2">
         <f t="shared" si="2"/>
         <v>31.247900000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -4805,16 +4807,16 @@
       <c r="F75">
         <v>20</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="3">
         <v>44648</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>0.36180555555555555</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="4">
         <v>44649</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <v>0.43541666666666662</v>
       </c>
       <c r="K75">
@@ -4824,21 +4826,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="2">
         <v>13.12</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N75" s="2">
         <v>7.34</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75" s="2">
         <f t="shared" si="2"/>
         <v>18.414000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -4857,16 +4859,16 @@
       <c r="F76">
         <v>21</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="3">
         <v>44575</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="1">
         <v>0.64166666666666672</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="4">
         <v>44576</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="1">
         <v>0.7583333333333333</v>
       </c>
       <c r="K76">
@@ -4876,21 +4878,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="2">
         <v>24.14</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="2">
         <v>7.2</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="2">
         <v>4.3876000000000008</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="2">
         <f t="shared" si="2"/>
         <v>26.952399999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -4909,16 +4911,16 @@
       <c r="F77">
         <v>22</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="3">
         <v>44738</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="4">
         <v>44741</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="1">
         <v>0.78194444444444444</v>
       </c>
       <c r="K77">
@@ -4928,21 +4930,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="2">
         <v>11.7</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="2">
         <v>8.58</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="2">
         <v>1.8251999999999999</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="2">
         <f t="shared" si="2"/>
         <v>18.454800000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -4961,16 +4963,16 @@
       <c r="F78">
         <v>31</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="3">
         <v>44713</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="1">
         <v>0.54097222222222219</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="4">
         <v>44716</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <v>0.82777777777777783</v>
       </c>
       <c r="K78">
@@ -4980,21 +4982,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="2">
         <v>15.77</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="2">
         <v>8</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="2">
         <v>3.5654999999999997</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="2">
         <f t="shared" si="2"/>
         <v>20.204499999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -5013,16 +5015,16 @@
       <c r="F79">
         <v>32</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="3">
         <v>44707</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="1">
         <v>0.58402777777777781</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="4">
         <v>44712</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <v>0.70972222222222225</v>
       </c>
       <c r="K79">
@@ -5032,21 +5034,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="2">
         <v>10.48</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="2">
         <v>9.34</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="2">
         <v>0.9910000000000001</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79" s="2">
         <f t="shared" si="2"/>
         <v>18.829000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -5065,16 +5067,16 @@
       <c r="F80">
         <v>33</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="3">
         <v>44617</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="1">
         <v>0.59027777777777779</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="4">
         <v>44621</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <v>0.80069444444444438</v>
       </c>
       <c r="K80">
@@ -5084,21 +5086,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="2">
         <v>13.23</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="2">
         <v>6.1</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="2">
         <v>1.3531</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80" s="2">
         <f t="shared" si="2"/>
         <v>17.976899999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -5117,16 +5119,16 @@
       <c r="F81">
         <v>34</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="3">
         <v>44648</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="1">
         <v>0.7270833333333333</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="4">
         <v>44651</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="1">
         <v>0.40833333333333338</v>
       </c>
       <c r="K81">
@@ -5136,21 +5138,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="2">
         <v>23.8</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="2">
         <v>6.13</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="2">
         <v>1.7957999999999998</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="2">
         <f t="shared" si="2"/>
         <v>28.1342</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -5169,16 +5171,16 @@
       <c r="F82">
         <v>19</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="3">
         <v>44641</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="1">
         <v>0.53263888888888888</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="4">
         <v>44643</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <v>0.76736111111111116</v>
       </c>
       <c r="K82">
@@ -5188,21 +5190,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="2">
         <v>21.12</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="2">
         <v>7.86</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="2">
         <v>2.8980000000000001</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82" s="2">
         <f t="shared" si="2"/>
         <v>26.082000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>124</v>
       </c>
@@ -5221,16 +5223,16 @@
       <c r="F83">
         <v>20</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="3">
         <v>44609</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="1">
         <v>0.79583333333333339</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="4">
         <v>44614</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="1">
         <v>0.53749999999999998</v>
       </c>
       <c r="K83">
@@ -5240,21 +5242,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="2">
         <v>28.82</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="2">
         <v>7.84</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="2">
         <v>4.3991999999999996</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="2">
         <f t="shared" si="2"/>
         <v>32.260799999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -5273,16 +5275,16 @@
       <c r="F84">
         <v>21</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="3">
         <v>44682</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="1">
         <v>0.41944444444444445</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="4">
         <v>44687</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <v>0.46319444444444446</v>
       </c>
       <c r="K84">
@@ -5292,21 +5294,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="2">
         <v>16.03</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84" s="2">
         <v>8.66</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="2">
         <v>3.2097000000000002</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84" s="2">
         <f t="shared" si="2"/>
         <v>21.4803</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -5325,16 +5327,16 @@
       <c r="F85">
         <v>22</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="3">
         <v>44640</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="1">
         <v>0.3840277777777778</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="4">
         <v>44643</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="1">
         <v>0.53333333333333333</v>
       </c>
       <c r="K85">
@@ -5344,21 +5346,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="2">
         <v>11.62</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N85" s="2">
         <v>8.84</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85" s="2">
         <v>2.4552</v>
       </c>
-      <c r="P85" s="3">
+      <c r="P85" s="2">
         <f t="shared" si="2"/>
         <v>18.004799999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -5377,16 +5379,16 @@
       <c r="F86">
         <v>31</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="3">
         <v>44676</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="4">
         <v>44680</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="1">
         <v>0.7597222222222223</v>
       </c>
       <c r="K86">
@@ -5396,21 +5398,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="2">
         <v>20.94</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N86" s="2">
         <v>5.37</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86" s="2">
         <v>1.5786</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86" s="2">
         <f t="shared" si="2"/>
         <v>24.731400000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -5429,16 +5431,16 @@
       <c r="F87">
         <v>19</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="3">
         <v>44660</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="1">
         <v>0.57361111111111118</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="4">
         <v>44665</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="1">
         <v>0.60625000000000007</v>
       </c>
       <c r="K87">
@@ -5448,21 +5450,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M87" s="3">
+      <c r="M87" s="2">
         <v>10.98</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N87" s="2">
         <v>6.74</v>
       </c>
-      <c r="O87" s="3">
+      <c r="O87" s="2">
         <v>1.772</v>
       </c>
-      <c r="P87" s="3">
+      <c r="P87" s="2">
         <f t="shared" si="2"/>
         <v>15.947999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -5481,16 +5483,16 @@
       <c r="F88">
         <v>20</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="3">
         <v>44598</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="1">
         <v>0.47083333333333338</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="4">
         <v>44602</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="1">
         <v>0.77638888888888891</v>
       </c>
       <c r="K88">
@@ -5500,21 +5502,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M88" s="2">
         <v>29.71</v>
       </c>
-      <c r="N88" s="3">
+      <c r="N88" s="2">
         <v>9.76</v>
       </c>
-      <c r="O88" s="3">
+      <c r="O88" s="2">
         <v>3.1576</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P88" s="2">
         <f t="shared" si="2"/>
         <v>36.312399999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -5533,16 +5535,16 @@
       <c r="F89">
         <v>21</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="3">
         <v>44731</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="1">
         <v>0.56944444444444442</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="4">
         <v>44732</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="1">
         <v>0.54097222222222219</v>
       </c>
       <c r="K89">
@@ -5552,21 +5554,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="2">
         <v>10.37</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="2">
         <v>6.11</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="2">
         <v>2.1424000000000003</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="2">
         <f t="shared" si="2"/>
         <v>14.3376</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -5585,16 +5587,16 @@
       <c r="F90">
         <v>22</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="3">
         <v>44573</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="1">
         <v>0.48333333333333334</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="4">
         <v>44574</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="1">
         <v>0.59652777777777777</v>
       </c>
       <c r="K90">
@@ -5604,21 +5606,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M90" s="2">
         <v>25.36</v>
       </c>
-      <c r="N90" s="3">
+      <c r="N90" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="O90" s="3">
+      <c r="O90" s="2">
         <v>3.39</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90" s="2">
         <f t="shared" si="2"/>
         <v>30.509999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -5637,16 +5639,16 @@
       <c r="F91">
         <v>23</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="3">
         <v>44606</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="1">
         <v>0.48194444444444445</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="4">
         <v>44609</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="1">
         <v>0.49722222222222223</v>
       </c>
       <c r="K91">
@@ -5656,21 +5658,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="2">
         <v>11.06</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="2">
         <v>5.8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="2">
         <v>1.6859999999999999</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="2">
         <f t="shared" si="2"/>
         <v>15.173999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>136</v>
       </c>
@@ -5689,16 +5691,16 @@
       <c r="F92">
         <v>24</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="3">
         <v>44596</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>0.46736111111111112</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="4">
         <v>44601</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="1">
         <v>0.4145833333333333</v>
       </c>
       <c r="K92">
@@ -5708,21 +5710,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M92" s="2">
         <v>12.1</v>
       </c>
-      <c r="N92" s="3">
+      <c r="N92" s="2">
         <v>8.73</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O92" s="2">
         <v>2.7079</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P92" s="2">
         <f t="shared" si="2"/>
         <v>18.1221</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -5741,16 +5743,16 @@
       <c r="F93">
         <v>25</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="3">
         <v>44663</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="1">
         <v>0.56388888888888888</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="4">
         <v>44665</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="1">
         <v>0.40069444444444446</v>
       </c>
       <c r="K93">
@@ -5760,21 +5762,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M93" s="2">
         <v>26.62</v>
       </c>
-      <c r="N93" s="3">
+      <c r="N93" s="2">
         <v>5.78</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O93" s="2">
         <v>3.8879999999999999</v>
       </c>
-      <c r="P93" s="3">
+      <c r="P93" s="2">
         <f t="shared" si="2"/>
         <v>28.512</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -5793,16 +5795,16 @@
       <c r="F94">
         <v>26</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="3">
         <v>44730</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>0.7006944444444444</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="4">
         <v>44735</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="1">
         <v>0.61875000000000002</v>
       </c>
       <c r="K94">
@@ -5812,21 +5814,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="2">
         <v>7.65</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="2">
         <v>2.4344999999999994</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="2">
         <f t="shared" si="2"/>
         <v>24.615499999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -5845,16 +5847,16 @@
       <c r="F95">
         <v>27</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="3">
         <v>44578</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="1">
         <v>0.56805555555555554</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="4">
         <v>44583</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="1">
         <v>0.67847222222222225</v>
       </c>
       <c r="K95">
@@ -5864,21 +5866,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="2">
         <v>26.36</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N95" s="2">
         <v>7.58</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95" s="2">
         <v>3.3940000000000001</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P95" s="2">
         <f t="shared" si="2"/>
         <v>30.545999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -5897,16 +5899,16 @@
       <c r="F96">
         <v>28</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="3">
         <v>44618</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="1">
         <v>0.36319444444444443</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="4">
         <v>44619</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="1">
         <v>0.78888888888888886</v>
       </c>
       <c r="K96">
@@ -5916,21 +5918,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M96" s="3">
+      <c r="M96" s="2">
         <v>25.84</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N96" s="2">
         <v>9.1199999999999992</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96" s="2">
         <v>5.2439999999999998</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P96" s="2">
         <f t="shared" si="2"/>
         <v>29.716000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5949,16 +5951,16 @@
       <c r="F97">
         <v>19</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="3">
         <v>44611</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="1">
         <v>0.7416666666666667</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="4">
         <v>44613</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="1">
         <v>0.34930555555555554</v>
       </c>
       <c r="K97">
@@ -5968,21 +5970,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M97" s="3">
+      <c r="M97" s="2">
         <v>14.75</v>
       </c>
-      <c r="N97" s="3">
+      <c r="N97" s="2">
         <v>5.2</v>
       </c>
-      <c r="O97" s="3">
+      <c r="O97" s="2">
         <v>2.3939999999999997</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97" s="2">
         <f t="shared" si="2"/>
         <v>17.556000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -6001,16 +6003,16 @@
       <c r="F98">
         <v>20</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="3">
         <v>44654</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="1">
         <v>0.62569444444444444</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="4">
         <v>44655</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="1">
         <v>0.4680555555555555</v>
       </c>
       <c r="K98">
@@ -6020,21 +6022,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98" s="2">
         <v>14.74</v>
       </c>
-      <c r="N98" s="3">
+      <c r="N98" s="2">
         <v>8.7200000000000006</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98" s="2">
         <v>2.8151999999999999</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="2">
         <f t="shared" si="2"/>
         <v>20.6448</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -6053,16 +6055,16 @@
       <c r="F99">
         <v>19</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="3">
         <v>44571</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="4">
         <v>44572</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="1">
         <v>0.55138888888888882</v>
       </c>
       <c r="K99">
@@ -6072,21 +6074,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M99" s="3">
+      <c r="M99" s="2">
         <v>29.22</v>
       </c>
-      <c r="N99" s="3">
+      <c r="N99" s="2">
         <v>5.24</v>
       </c>
-      <c r="O99" s="3">
+      <c r="O99" s="2">
         <v>4.4798</v>
       </c>
-      <c r="P99" s="3">
+      <c r="P99" s="2">
         <f t="shared" si="2"/>
         <v>29.9802</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -6105,16 +6107,16 @@
       <c r="F100">
         <v>19</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="3">
         <v>44614</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="1">
         <v>0.68819444444444444</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="4">
         <v>44618</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="1">
         <v>0.65763888888888888</v>
       </c>
       <c r="K100">
@@ -6124,21 +6126,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="2">
         <v>12.6</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="2">
         <v>2.7482000000000002</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="2">
         <f t="shared" si="2"/>
         <v>18.3918</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -6157,16 +6159,16 @@
       <c r="F101">
         <v>20</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="3">
         <v>44597</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="1">
         <v>0.37013888888888885</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="4">
         <v>44601</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="1">
         <v>0.57847222222222217</v>
       </c>
       <c r="K101">
@@ -6176,21 +6178,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="2">
         <v>12.11</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="2">
         <v>5.43</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="2">
         <v>1.5785999999999998</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="2">
         <f t="shared" si="2"/>
         <v>15.961399999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -6209,16 +6211,16 @@
       <c r="F102">
         <v>21</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="3">
         <v>44731</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="1">
         <v>0.3576388888888889</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="4">
         <v>44735</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="1">
         <v>0.47916666666666669</v>
       </c>
       <c r="K102">
@@ -6228,21 +6230,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="2">
         <v>29.28</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="2">
         <v>8.43</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="2">
         <v>2.2625999999999999</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="2">
         <f t="shared" si="2"/>
         <v>35.447400000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
@@ -6261,16 +6263,16 @@
       <c r="F103">
         <v>22</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="3">
         <v>44738</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="1">
         <v>0.34236111111111112</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="4">
         <v>44742</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="1">
         <v>0.43958333333333338</v>
       </c>
       <c r="K103">
@@ -6280,21 +6282,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M103" s="3">
+      <c r="M103" s="2">
         <v>10.1</v>
       </c>
-      <c r="N103" s="3">
+      <c r="N103" s="2">
         <v>9.6</v>
       </c>
-      <c r="O103" s="3">
+      <c r="O103" s="2">
         <v>1.1819999999999999</v>
       </c>
-      <c r="P103" s="3">
+      <c r="P103" s="2">
         <f t="shared" si="2"/>
         <v>18.518000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -6313,16 +6315,16 @@
       <c r="F104">
         <v>31</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="3">
         <v>44624</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="1">
         <v>0.34375</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="4">
         <v>44626</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="1">
         <v>0.46527777777777773</v>
       </c>
       <c r="K104">
@@ -6332,21 +6334,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M104" s="3">
+      <c r="M104" s="2">
         <v>26.52</v>
       </c>
-      <c r="N104" s="3">
+      <c r="N104" s="2">
         <v>7.23</v>
       </c>
-      <c r="O104" s="3">
+      <c r="O104" s="2">
         <v>5.0625</v>
       </c>
-      <c r="P104" s="3">
+      <c r="P104" s="2">
         <f t="shared" si="2"/>
         <v>28.6875</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -6365,16 +6367,16 @@
       <c r="F105">
         <v>36</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="3">
         <v>44589</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="1">
         <v>0.45902777777777781</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="4">
         <v>44592</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="1">
         <v>0.51111111111111118</v>
       </c>
       <c r="K105">
@@ -6384,21 +6386,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M105" s="3">
+      <c r="M105" s="2">
         <v>29.88</v>
       </c>
-      <c r="N105" s="3">
+      <c r="N105" s="2">
         <v>8.4700000000000006</v>
       </c>
-      <c r="O105" s="3">
+      <c r="O105" s="2">
         <v>2.6845000000000003</v>
       </c>
-      <c r="P105" s="3">
+      <c r="P105" s="2">
         <f t="shared" si="2"/>
         <v>35.665500000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -6417,16 +6419,16 @@
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="3">
         <v>44717</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="1">
         <v>0.45208333333333334</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="4">
         <v>44719</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="1">
         <v>0.34027777777777773</v>
       </c>
       <c r="K106">
@@ -6436,21 +6438,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M106" s="2">
         <v>11.57</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N106" s="2">
         <v>6.75</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O106" s="2">
         <v>1.4656</v>
       </c>
-      <c r="P106" s="3">
+      <c r="P106" s="2">
         <f t="shared" si="2"/>
         <v>16.854400000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -6469,16 +6471,16 @@
       <c r="F107">
         <v>2</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="3">
         <v>44615</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="1">
         <v>0.56805555555555554</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="4">
         <v>44618</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="1">
         <v>0.5756944444444444</v>
       </c>
       <c r="K107">
@@ -6488,21 +6490,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107" s="2">
         <v>13.78</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N107" s="2">
         <v>5.19</v>
       </c>
-      <c r="O107" s="3">
+      <c r="O107" s="2">
         <v>1.1381999999999999</v>
       </c>
-      <c r="P107" s="3">
+      <c r="P107" s="2">
         <f t="shared" si="2"/>
         <v>17.831799999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -6521,16 +6523,16 @@
       <c r="F108">
         <v>3</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="3">
         <v>44612</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="1">
         <v>0.61597222222222225</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="4">
         <v>44614</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="1">
         <v>0.48125000000000001</v>
       </c>
       <c r="K108">
@@ -6540,21 +6542,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M108" s="3">
+      <c r="M108" s="2">
         <v>18.97</v>
       </c>
-      <c r="N108" s="3">
+      <c r="N108" s="2">
         <v>6.54</v>
       </c>
-      <c r="O108" s="3">
+      <c r="O108" s="2">
         <v>1.2755000000000001</v>
       </c>
-      <c r="P108" s="3">
+      <c r="P108" s="2">
         <f t="shared" si="2"/>
         <v>24.234499999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>156</v>
       </c>
@@ -6573,16 +6575,16 @@
       <c r="F109">
         <v>4</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="3">
         <v>44713</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="4">
         <v>44715</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109" s="1">
         <v>0.39583333333333331</v>
       </c>
       <c r="K109">
@@ -6592,21 +6594,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M109" s="3">
+      <c r="M109" s="2">
         <v>21.37</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N109" s="2">
         <v>9.52</v>
       </c>
-      <c r="O109" s="3">
+      <c r="O109" s="2">
         <v>3.3978999999999999</v>
       </c>
-      <c r="P109" s="3">
+      <c r="P109" s="2">
         <f t="shared" si="2"/>
         <v>27.492100000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>158</v>
       </c>
@@ -6625,16 +6627,16 @@
       <c r="F110">
         <v>5</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="3">
         <v>44652</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="1">
         <v>0.47361111111111115</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="4">
         <v>44656</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="1">
         <v>0.69930555555555562</v>
       </c>
       <c r="K110">
@@ -6644,21 +6646,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M110" s="3">
+      <c r="M110" s="2">
         <v>20.69</v>
       </c>
-      <c r="N110" s="3">
+      <c r="N110" s="2">
         <v>7.02</v>
       </c>
-      <c r="O110" s="3">
+      <c r="O110" s="2">
         <v>2.7710000000000004</v>
       </c>
-      <c r="P110" s="3">
+      <c r="P110" s="2">
         <f t="shared" si="2"/>
         <v>24.939</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>159</v>
       </c>
@@ -6677,16 +6679,16 @@
       <c r="F111">
         <v>6</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="3">
         <v>44690</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="1">
         <v>0.6958333333333333</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="4">
         <v>44695</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111" s="1">
         <v>0.39166666666666666</v>
       </c>
       <c r="K111">
@@ -6696,21 +6698,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M111" s="3">
+      <c r="M111" s="2">
         <v>22.35</v>
       </c>
-      <c r="N111" s="3">
+      <c r="N111" s="2">
         <v>9.73</v>
       </c>
-      <c r="O111" s="3">
+      <c r="O111" s="2">
         <v>1.6040000000000001</v>
       </c>
-      <c r="P111" s="3">
+      <c r="P111" s="2">
         <f t="shared" si="2"/>
         <v>30.475999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -6729,16 +6731,16 @@
       <c r="F112">
         <v>7</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="3">
         <v>44675</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="1">
         <v>0.45763888888888887</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="4">
         <v>44676</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112" s="1">
         <v>0.48333333333333334</v>
       </c>
       <c r="K112">
@@ -6748,21 +6750,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M112" s="3">
+      <c r="M112" s="2">
         <v>28.05</v>
       </c>
-      <c r="N112" s="3">
+      <c r="N112" s="2">
         <v>6.28</v>
       </c>
-      <c r="O112" s="3">
+      <c r="O112" s="2">
         <v>1.7164999999999999</v>
       </c>
-      <c r="P112" s="3">
+      <c r="P112" s="2">
         <f t="shared" si="2"/>
         <v>32.613500000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>162</v>
       </c>
@@ -6781,16 +6783,16 @@
       <c r="F113">
         <v>8</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="3">
         <v>44659</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="1">
         <v>0.78680555555555554</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="4">
         <v>44660</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="1">
         <v>0.45416666666666666</v>
       </c>
       <c r="K113">
@@ -6800,21 +6802,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M113" s="3">
+      <c r="M113" s="2">
         <v>26.17</v>
       </c>
-      <c r="N113" s="3">
+      <c r="N113" s="2">
         <v>7.58</v>
       </c>
-      <c r="O113" s="3">
+      <c r="O113" s="2">
         <v>5.0625</v>
       </c>
-      <c r="P113" s="3">
+      <c r="P113" s="2">
         <f t="shared" si="2"/>
         <v>28.6875</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>163</v>
       </c>
@@ -6833,16 +6835,16 @@
       <c r="F114">
         <v>16</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="3">
         <v>44569</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="1">
         <v>0.4055555555555555</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="4">
         <v>44572</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="1">
         <v>0.45</v>
       </c>
       <c r="K114">
@@ -6852,21 +6854,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M114" s="3">
+      <c r="M114" s="2">
         <v>29.78</v>
       </c>
-      <c r="N114" s="3">
+      <c r="N114" s="2">
         <v>9.75</v>
       </c>
-      <c r="O114" s="3">
+      <c r="O114" s="2">
         <v>5.9295</v>
       </c>
-      <c r="P114" s="3">
+      <c r="P114" s="2">
         <f t="shared" si="2"/>
         <v>33.600500000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>164</v>
       </c>
@@ -6885,16 +6887,16 @@
       <c r="F115">
         <v>19</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="3">
         <v>44648</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="1">
         <v>0.71111111111111114</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="4">
         <v>44653</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="1">
         <v>0.76944444444444438</v>
       </c>
       <c r="K115">
@@ -6904,21 +6906,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M115" s="3">
+      <c r="M115" s="2">
         <v>13.25</v>
       </c>
-      <c r="N115" s="3">
+      <c r="N115" s="2">
         <v>5.8</v>
       </c>
-      <c r="O115" s="3">
+      <c r="O115" s="2">
         <v>2.4765000000000001</v>
       </c>
-      <c r="P115" s="3">
+      <c r="P115" s="2">
         <f t="shared" si="2"/>
         <v>16.573499999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -6937,16 +6939,16 @@
       <c r="F116">
         <v>20</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="3">
         <v>44727</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="1">
         <v>0.59097222222222223</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="4">
         <v>44731</v>
       </c>
-      <c r="J116" s="2">
+      <c r="J116" s="1">
         <v>0.70624999999999993</v>
       </c>
       <c r="K116">
@@ -6956,21 +6958,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M116" s="3">
+      <c r="M116" s="2">
         <v>20.82</v>
       </c>
-      <c r="N116" s="3">
+      <c r="N116" s="2">
         <v>9.4600000000000009</v>
       </c>
-      <c r="O116" s="3">
+      <c r="O116" s="2">
         <v>3.3308</v>
       </c>
-      <c r="P116" s="3">
+      <c r="P116" s="2">
         <f t="shared" si="2"/>
         <v>26.949200000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -6989,16 +6991,16 @@
       <c r="F117">
         <v>21</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="3">
         <v>44737</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="1">
         <v>0.68611111111111101</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="4">
         <v>44740</v>
       </c>
-      <c r="J117" s="2">
+      <c r="J117" s="1">
         <v>0.55625000000000002</v>
       </c>
       <c r="K117">
@@ -7008,21 +7010,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M117" s="3">
+      <c r="M117" s="2">
         <v>26.38</v>
       </c>
-      <c r="N117" s="3">
+      <c r="N117" s="2">
         <v>6.63</v>
       </c>
-      <c r="O117" s="3">
+      <c r="O117" s="2">
         <v>3.3010000000000002</v>
       </c>
-      <c r="P117" s="3">
+      <c r="P117" s="2">
         <f t="shared" si="2"/>
         <v>29.708999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>167</v>
       </c>
@@ -7041,16 +7043,16 @@
       <c r="F118">
         <v>22</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118" s="3">
         <v>44589</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="1">
         <v>0.82361111111111107</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="4">
         <v>44591</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="1">
         <v>0.53541666666666665</v>
       </c>
       <c r="K118">
@@ -7060,21 +7062,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M118" s="3">
+      <c r="M118" s="2">
         <v>25.81</v>
       </c>
-      <c r="N118" s="3">
+      <c r="N118" s="2">
         <v>8.75</v>
       </c>
-      <c r="O118" s="3">
+      <c r="O118" s="2">
         <v>5.1840000000000002</v>
       </c>
-      <c r="P118" s="3">
+      <c r="P118" s="2">
         <f t="shared" si="2"/>
         <v>29.376000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -7093,16 +7095,16 @@
       <c r="F119">
         <v>31</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="3">
         <v>44673</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="1">
         <v>0.71111111111111114</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="4">
         <v>44675</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="1">
         <v>0.45763888888888887</v>
       </c>
       <c r="K119">
@@ -7112,21 +7114,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M119" s="3">
+      <c r="M119" s="2">
         <v>12.38</v>
       </c>
-      <c r="N119" s="3">
+      <c r="N119" s="2">
         <v>7.28</v>
       </c>
-      <c r="O119" s="3">
+      <c r="O119" s="2">
         <v>2.7524000000000002</v>
       </c>
-      <c r="P119" s="3">
+      <c r="P119" s="2">
         <f t="shared" si="2"/>
         <v>16.907599999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -7145,16 +7147,16 @@
       <c r="F120">
         <v>32</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120" s="3">
         <v>44578</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="1">
         <v>0.3972222222222222</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="4">
         <v>44581</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="1">
         <v>0.81111111111111101</v>
       </c>
       <c r="K120">
@@ -7164,21 +7166,21 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M120" s="3">
+      <c r="M120" s="2">
         <v>20.04</v>
       </c>
-      <c r="N120" s="3">
+      <c r="N120" s="2">
         <v>9.61</v>
       </c>
-      <c r="O120" s="3">
+      <c r="O120" s="2">
         <v>2.9649999999999999</v>
       </c>
-      <c r="P120" s="3">
+      <c r="P120" s="2">
         <f t="shared" si="2"/>
         <v>26.684999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -7197,16 +7199,16 @@
       <c r="F121">
         <v>33</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="3">
         <v>44707</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="1">
         <v>0.70972222222222225</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="4">
         <v>44712</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="1">
         <v>0.78680555555555554</v>
       </c>
       <c r="K121">
@@ -7216,21 +7218,22 @@
         <f t="shared" si="3"/>
         <v>PM04</v>
       </c>
-      <c r="M121" s="3">
+      <c r="M121" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="N121" s="3">
+      <c r="N121" s="2">
         <v>7.41</v>
       </c>
-      <c r="O121" s="3">
+      <c r="O121" s="2">
         <v>2.7010000000000005</v>
       </c>
-      <c r="P121" s="3">
+      <c r="P121" s="2">
         <f t="shared" si="2"/>
         <v>24.309000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>